--- a/implementation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/IMKL3_ExtraRules_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B1E00-8012-4D56-BC82-2C60F3B96EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDA0E9-0964-419C-84C1-FE63A546F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16350" yWindow="-16320" windowWidth="29040" windowHeight="15990" firstSheet="5" activeTab="5" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="46272" windowHeight="30456" firstSheet="1" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="CoverageDetail" sheetId="25" r:id="rId5"/>
     <sheet name="StandardCoverageDetail" sheetId="26" r:id="rId6"/>
     <sheet name="ElectricityCable" sheetId="6" r:id="rId7"/>
-    <sheet name="TelecommunicationsCable" sheetId="7" r:id="rId8"/>
-    <sheet name="Pipe" sheetId="12" r:id="rId9"/>
+    <sheet name="Pipe" sheetId="12" r:id="rId8"/>
+    <sheet name="TelecommunicationsCable" sheetId="7" r:id="rId9"/>
     <sheet name="OilGasChemicalsPipe" sheetId="8" r:id="rId10"/>
     <sheet name="SewerPipe" sheetId="9" r:id="rId11"/>
     <sheet name="WaterPipe" sheetId="10" r:id="rId12"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="273">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -911,6 +911,15 @@
   </si>
   <si>
     <t>red: obligation/prohibition</t>
+  </si>
+  <si>
+    <t>Must be present if parent element is included. nilReason is not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL. nilReason not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>Strict obligation in IMKL if recordedBy is included. nilReason not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
   </si>
 </sst>
 </file>
@@ -1415,83 +1424,83 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45499</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>248</v>
       </c>
@@ -1505,21 +1514,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8BC120-06A7-4659-AA0B-1A9C52390F35}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1589,7 +1598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -1629,7 +1638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -1669,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1749,7 +1758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -1809,7 +1818,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -1889,7 +1898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>150</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1929,7 +1938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>170</v>
       </c>
@@ -1969,7 +1978,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -1989,7 +1998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -2049,7 +2058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -2069,7 +2078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -2149,7 +2158,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2189,7 +2198,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -2206,10 +2215,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -2249,7 +2258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -2269,7 +2278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -2309,7 +2318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -2379,20 +2388,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2402,7 +2411,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>170</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -3079,10 +3088,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -3251,21 +3260,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0553AC-C8D7-405B-BF7B-D5436FA88A29}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3284,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -3335,7 +3344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -3455,7 +3464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -3535,7 +3544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>157</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>170</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -3815,7 +3824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -3952,10 +3961,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -4095,7 +4104,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -4125,20 +4134,20 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F23"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +4157,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4168,7 +4177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -4328,7 +4337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -4368,7 +4377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -4408,7 +4417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -4428,7 +4437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -4448,7 +4457,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -4488,7 +4497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>161</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>170</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -4608,7 +4617,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -4688,7 +4697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -4808,7 +4817,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -4825,10 +4834,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -4928,7 +4937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -4948,7 +4957,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -4968,7 +4977,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>162</v>
       </c>
@@ -5018,20 +5027,20 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5041,7 +5050,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5081,7 +5090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5101,7 +5110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -5161,7 +5170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -5181,7 +5190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -5241,7 +5250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -5301,7 +5310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -5321,7 +5330,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>165</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>166</v>
       </c>
@@ -5361,7 +5370,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
@@ -5381,7 +5390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
@@ -5401,7 +5410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -5421,7 +5430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -5441,7 +5450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>170</v>
       </c>
@@ -5461,7 +5470,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -5501,7 +5510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -5521,7 +5530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>130</v>
       </c>
@@ -5541,7 +5550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>131</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>132</v>
       </c>
@@ -5581,7 +5590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>133</v>
       </c>
@@ -5601,7 +5610,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>134</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
@@ -5641,7 +5650,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>106</v>
       </c>
@@ -5661,7 +5670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -5681,7 +5690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -5698,10 +5707,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
@@ -5721,7 +5730,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -5741,7 +5750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
@@ -5761,7 +5770,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -5801,7 +5810,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>151</v>
       </c>
@@ -5821,7 +5830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>164</v>
       </c>
@@ -5850,21 +5859,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2764A8-90B0-4CAB-A949-0A9B643E9D1B}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5874,7 +5883,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5894,7 +5903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5914,7 +5923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -5954,7 +5963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -5994,7 +6003,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -6054,7 +6063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -6094,7 +6103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -6114,7 +6123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6134,7 +6143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -6154,7 +6163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -6174,7 +6183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -6194,7 +6203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6234,7 +6243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -6274,7 +6283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>170</v>
       </c>
@@ -6294,7 +6303,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -6314,7 +6323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -6334,7 +6343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -6354,7 +6363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>83</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -6394,7 +6403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>105</v>
       </c>
@@ -6414,7 +6423,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
@@ -6434,7 +6443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>66</v>
       </c>
@@ -6454,7 +6463,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>67</v>
       </c>
@@ -6471,10 +6480,10 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -6494,7 +6503,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>107</v>
       </c>
@@ -6514,7 +6523,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
@@ -6534,7 +6543,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
@@ -6554,7 +6563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
@@ -6574,7 +6583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -6603,21 +6612,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB1F68D-948C-4BF5-8AE7-6399B7AADE69}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6627,7 +6636,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6647,7 +6656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6667,7 +6676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -6687,7 +6696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -6707,7 +6716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -6727,7 +6736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -6747,7 +6756,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -6767,7 +6776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -6787,7 +6796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -6807,7 +6816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
@@ -6827,7 +6836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -6847,7 +6856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -6867,7 +6876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6887,7 +6896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -6927,7 +6936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -6947,7 +6956,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6967,7 +6976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6987,7 +6996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -7007,7 +7016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -7027,7 +7036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>83</v>
       </c>
@@ -7107,7 +7116,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -7127,7 +7136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>105</v>
       </c>
@@ -7147,7 +7156,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
@@ -7167,7 +7176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>67</v>
       </c>
@@ -7204,10 +7213,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
@@ -7227,7 +7236,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
@@ -7247,7 +7256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
@@ -7267,7 +7276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -7287,7 +7296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>117</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -7367,7 +7376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>119</v>
       </c>
@@ -7387,7 +7396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -7407,7 +7416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
@@ -7437,20 +7446,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7460,7 +7469,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7480,7 +7489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -7500,7 +7509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -7520,7 +7529,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -7540,7 +7549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -7560,7 +7569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7580,7 +7589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -7600,7 +7609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -7640,7 +7649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -7660,7 +7669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -7700,7 +7709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7720,7 +7729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -7760,7 +7769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -7780,7 +7789,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -7800,7 +7809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -7820,7 +7829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
@@ -7840,7 +7849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -7860,7 +7869,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -7880,7 +7889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>105</v>
       </c>
@@ -7900,7 +7909,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -7920,7 +7929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -7940,7 +7949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -7957,10 +7966,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -7980,7 +7989,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -8000,7 +8009,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -8020,7 +8029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -8040,7 +8049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -8060,7 +8069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -8080,10 +8089,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -8096,20 +8105,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -8119,7 +8128,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8139,7 +8148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -8159,7 +8168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -8179,7 +8188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -8199,7 +8208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -8219,7 +8228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8239,7 +8248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -8259,7 +8268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -8279,7 +8288,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -8299,7 +8308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -8319,7 +8328,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -8339,7 +8348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -8359,7 +8368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -8379,7 +8388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8399,7 +8408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -8419,7 +8428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -8439,7 +8448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -8459,7 +8468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -8479,7 +8488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
@@ -8499,7 +8508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -8519,7 +8528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -8539,7 +8548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>105</v>
       </c>
@@ -8559,7 +8568,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -8579,7 +8588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -8599,7 +8608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -8616,10 +8625,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -8639,7 +8648,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -8659,7 +8668,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -8679,7 +8688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -8699,7 +8708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -8719,7 +8728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -8739,10 +8748,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -8755,20 +8764,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8778,7 +8787,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8798,7 +8807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -8818,7 +8827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -8838,7 +8847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -8858,7 +8867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -8878,7 +8887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8898,7 +8907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -8918,7 +8927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -8938,7 +8947,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -8958,7 +8967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -8978,7 +8987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>175</v>
       </c>
@@ -8998,7 +9007,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -9018,7 +9027,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -9038,7 +9047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -9058,7 +9067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -9078,7 +9087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -9098,7 +9107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -9118,7 +9127,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
@@ -9138,7 +9147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -9158,7 +9167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -9178,7 +9187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -9198,7 +9207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -9218,7 +9227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>105</v>
       </c>
@@ -9238,7 +9247,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -9258,7 +9267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -9278,7 +9287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -9295,10 +9304,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -9318,7 +9327,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -9338,7 +9347,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
@@ -9358,7 +9367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -9378,7 +9387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>43</v>
       </c>
@@ -9398,7 +9407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
@@ -9418,10 +9427,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -9433,21 +9442,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9457,7 +9466,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9477,7 +9486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -9497,7 +9506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9517,7 +9526,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -9537,7 +9546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9577,7 +9586,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -9597,7 +9606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
@@ -9617,7 +9626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9637,7 +9646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -9657,7 +9666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -9677,7 +9686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -9697,7 +9706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9717,7 +9726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -9737,7 +9746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -9757,7 +9766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -9774,10 +9783,10 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -9797,7 +9806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9817,7 +9826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9837,7 +9846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9857,7 +9866,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9877,7 +9886,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9907,20 +9916,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9930,7 +9939,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9950,7 +9959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -9970,7 +9979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -9990,7 +9999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -10010,7 +10019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -10030,7 +10039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -10050,7 +10059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -10070,7 +10079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -10090,7 +10099,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -10110,7 +10119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>169</v>
       </c>
@@ -10130,7 +10139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>177</v>
       </c>
@@ -10150,7 +10159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -10190,7 +10199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -10210,7 +10219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -10230,7 +10239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -10250,7 +10259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>170</v>
       </c>
@@ -10270,7 +10279,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
@@ -10290,7 +10299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -10310,7 +10319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -10330,7 +10339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -10350,7 +10359,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -10370,7 +10379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>105</v>
       </c>
@@ -10390,7 +10399,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -10410,7 +10419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -10430,7 +10439,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -10447,10 +10456,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -10470,7 +10479,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -10490,7 +10499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
@@ -10510,7 +10519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -10530,7 +10539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>43</v>
       </c>
@@ -10550,7 +10559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
@@ -10570,10 +10579,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10589,17 +10598,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10609,7 +10618,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10629,7 +10638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10649,7 +10658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10669,7 +10678,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10689,7 +10698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10709,7 +10718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>178</v>
       </c>
@@ -10749,7 +10758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>179</v>
       </c>
@@ -10769,7 +10778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>180</v>
       </c>
@@ -10789,7 +10798,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -10809,43 +10818,43 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10853,22 +10862,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10876,19 +10885,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10901,20 +10910,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -10924,7 +10933,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10944,7 +10953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10964,7 +10973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10984,7 +10993,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11004,7 +11013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11024,7 +11033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11044,7 +11053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>178</v>
       </c>
@@ -11064,7 +11073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>179</v>
       </c>
@@ -11084,7 +11093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>180</v>
       </c>
@@ -11104,7 +11113,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -11124,7 +11133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>184</v>
       </c>
@@ -11144,7 +11153,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>185</v>
       </c>
@@ -11164,7 +11173,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>134</v>
       </c>
@@ -11184,7 +11193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
@@ -11204,7 +11213,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>106</v>
       </c>
@@ -11224,7 +11233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -11244,7 +11253,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
@@ -11261,10 +11270,10 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
@@ -11284,7 +11293,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -11304,7 +11313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -11324,13 +11333,13 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11338,22 +11347,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11361,19 +11370,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -11389,17 +11398,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -11409,7 +11418,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11429,7 +11438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11449,7 +11458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11469,7 +11478,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11489,7 +11498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>186</v>
       </c>
@@ -11509,7 +11518,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11529,7 +11538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>187</v>
       </c>
@@ -11549,7 +11558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>188</v>
       </c>
@@ -11569,7 +11578,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>185</v>
       </c>
@@ -11589,7 +11598,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -11609,7 +11618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>189</v>
       </c>
@@ -11629,16 +11638,16 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
@@ -11651,20 +11660,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11674,7 +11683,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11694,7 +11703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11714,7 +11723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11734,7 +11743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11754,7 +11763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>66</v>
       </c>
@@ -11774,7 +11783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11794,7 +11803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>194</v>
       </c>
@@ -11814,7 +11823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -11834,7 +11843,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>84</v>
       </c>
@@ -11854,7 +11863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>105</v>
       </c>
@@ -11874,7 +11883,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>106</v>
       </c>
@@ -11894,7 +11903,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
@@ -11914,7 +11923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -11931,10 +11940,10 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>68</v>
       </c>
@@ -11954,7 +11963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -11974,7 +11983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>108</v>
       </c>
@@ -11994,7 +12003,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -12024,20 +12033,20 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -12047,7 +12056,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12067,7 +12076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -12087,7 +12096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -12107,7 +12116,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12127,7 +12136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -12147,7 +12156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -12167,7 +12176,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>185</v>
       </c>
@@ -12187,7 +12196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -12207,7 +12216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -12227,7 +12236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -12247,7 +12256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -12267,7 +12276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -12284,10 +12293,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -12307,7 +12316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -12327,7 +12336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -12360,17 +12369,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -12380,7 +12389,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12400,7 +12409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -12420,7 +12429,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -12440,7 +12449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12460,7 +12469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -12480,7 +12489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>228</v>
       </c>
@@ -12500,7 +12509,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>229</v>
       </c>
@@ -12520,7 +12529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>231</v>
       </c>
@@ -12540,7 +12549,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>232</v>
       </c>
@@ -12560,7 +12569,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -12580,7 +12589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -12600,7 +12609,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -12620,7 +12629,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
@@ -12640,7 +12649,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -12660,7 +12669,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>91</v>
       </c>
@@ -12690,20 +12699,20 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -12713,7 +12722,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12733,7 +12742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -12753,7 +12762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>199</v>
       </c>
@@ -12773,7 +12782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -12793,7 +12802,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -12813,7 +12822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>196</v>
       </c>
@@ -12833,7 +12842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>200</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>202</v>
       </c>
@@ -12873,7 +12882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>203</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -12913,7 +12922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -12933,7 +12942,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -12953,7 +12962,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -12973,7 +12982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -13013,7 +13022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -13033,7 +13042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>84</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -13093,7 +13102,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -13113,7 +13122,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -13130,10 +13139,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -13153,7 +13162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -13173,7 +13182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -13193,7 +13202,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>197</v>
       </c>
@@ -13213,7 +13222,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -13242,21 +13251,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D942B28-BE2C-4879-B771-95BEB360A522}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -13266,7 +13275,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13286,7 +13295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13306,7 +13315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13326,7 +13335,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13346,7 +13355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -13366,7 +13375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>211</v>
       </c>
@@ -13386,7 +13395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
@@ -13406,7 +13415,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>210</v>
       </c>
@@ -13426,7 +13435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -13446,7 +13455,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -13466,7 +13475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -13486,7 +13495,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -13503,10 +13512,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -13526,7 +13535,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>107</v>
       </c>
@@ -13546,7 +13555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -13566,7 +13575,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>185</v>
       </c>
@@ -13586,7 +13595,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>134</v>
       </c>
@@ -13606,7 +13615,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -13626,7 +13635,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -13646,7 +13655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -13666,7 +13675,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -13683,10 +13692,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -13706,7 +13715,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -13726,7 +13735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -13746,7 +13755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
@@ -13766,7 +13775,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -13786,7 +13795,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>209</v>
       </c>
@@ -13806,7 +13815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
@@ -13826,7 +13835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -13846,7 +13855,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -13866,7 +13875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -13886,7 +13895,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -13903,10 +13912,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -13926,7 +13935,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -13946,7 +13955,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -13966,7 +13975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -13986,7 +13995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>197</v>
       </c>
@@ -14015,21 +14024,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEEBB16-5094-4A68-A615-43B0896E521F}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -14039,7 +14048,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -14079,7 +14088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -14119,7 +14128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -14139,7 +14148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>211</v>
       </c>
@@ -14159,7 +14168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
@@ -14179,7 +14188,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>210</v>
       </c>
@@ -14199,7 +14208,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -14219,7 +14228,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -14239,7 +14248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -14259,7 +14268,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -14276,10 +14285,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -14299,7 +14308,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>107</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -14339,7 +14348,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>185</v>
       </c>
@@ -14359,7 +14368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>134</v>
       </c>
@@ -14379,7 +14388,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -14399,7 +14408,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -14439,7 +14448,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -14456,10 +14465,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -14479,7 +14488,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -14499,7 +14508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -14519,7 +14528,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
@@ -14539,7 +14548,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -14559,7 +14568,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>209</v>
       </c>
@@ -14579,7 +14588,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
@@ -14599,7 +14608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -14619,7 +14628,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -14639,7 +14648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -14659,7 +14668,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -14676,10 +14685,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -14699,7 +14708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -14719,7 +14728,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -14739,7 +14748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>185</v>
       </c>
@@ -14759,7 +14768,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
@@ -14779,7 +14788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>105</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -14819,7 +14828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -14839,7 +14848,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
@@ -14856,10 +14865,10 @@
         <v>50</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
@@ -14879,7 +14888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
@@ -14899,7 +14908,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
@@ -14919,7 +14928,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -14939,7 +14948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>197</v>
       </c>
@@ -14968,21 +14977,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B140CE-B260-4273-B7CB-D8C81EBB6EBD}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -14992,7 +15001,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15012,7 +15021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -15032,7 +15041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -15052,7 +15061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -15072,7 +15081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>208</v>
       </c>
@@ -15092,7 +15101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>211</v>
       </c>
@@ -15112,7 +15121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -15132,7 +15141,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>210</v>
       </c>
@@ -15152,7 +15161,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -15172,7 +15181,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -15192,7 +15201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -15212,7 +15221,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -15229,10 +15238,10 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -15252,7 +15261,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -15272,7 +15281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -15292,7 +15301,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>185</v>
       </c>
@@ -15312,7 +15321,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>134</v>
       </c>
@@ -15332,7 +15341,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -15352,7 +15361,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -15372,7 +15381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -15392,7 +15401,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -15409,10 +15418,10 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -15432,7 +15441,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -15452,7 +15461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -15472,7 +15481,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -15492,7 +15501,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -15512,7 +15521,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>209</v>
       </c>
@@ -15532,7 +15541,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>210</v>
       </c>
@@ -15552,7 +15561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -15572,7 +15581,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -15592,7 +15601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -15612,7 +15621,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -15629,10 +15638,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -15652,7 +15661,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -15672,7 +15681,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -15692,7 +15701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
@@ -15712,7 +15721,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -15742,20 +15751,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F20"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15765,7 +15774,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15785,7 +15794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -15805,7 +15814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -15825,7 +15834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -15845,7 +15854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -15865,7 +15874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -15885,7 +15894,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -15905,7 +15914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -15925,7 +15934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -15945,7 +15954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -15965,7 +15974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -15985,7 +15994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -16005,7 +16014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -16025,7 +16034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -16045,7 +16054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
@@ -16065,7 +16074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
@@ -16085,7 +16094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -16105,7 +16114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -16125,7 +16134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>170</v>
       </c>
@@ -16145,7 +16154,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -16165,7 +16174,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>82</v>
       </c>
@@ -16185,7 +16194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
@@ -16205,7 +16214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>130</v>
       </c>
@@ -16225,7 +16234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
@@ -16245,7 +16254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -16265,7 +16274,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>133</v>
       </c>
@@ -16285,7 +16294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
@@ -16305,7 +16314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>105</v>
       </c>
@@ -16325,7 +16334,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>106</v>
       </c>
@@ -16345,7 +16354,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
@@ -16365,7 +16374,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
@@ -16382,10 +16391,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -16405,7 +16414,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
@@ -16425,7 +16434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
@@ -16445,7 +16454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
@@ -16465,7 +16474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -16485,7 +16494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -16505,7 +16514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>135</v>
       </c>
@@ -16525,7 +16534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -16551,26 +16560,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:F19"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16578,7 +16587,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -16598,7 +16607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -16618,7 +16627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -16638,7 +16647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -16658,7 +16667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -16678,7 +16687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -16698,7 +16707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -16718,7 +16727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -16738,7 +16747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -16758,7 +16767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -16778,7 +16787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -16798,7 +16807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -16818,7 +16827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -16838,7 +16847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -16858,149 +16867,149 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>69</v>
@@ -17018,324 +17027,384 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="B28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="B29" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="B30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="C31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="C32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="C34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
+      <c r="C36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="B38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="B39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E39" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="B42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -17344,26 +17413,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
-  <dimension ref="A1:F42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17371,7 +17440,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -17391,7 +17460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -17411,7 +17480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -17431,7 +17500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -17451,7 +17520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -17471,7 +17540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -17491,7 +17560,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -17511,7 +17580,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -17531,7 +17600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -17551,7 +17620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -17571,7 +17640,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -17591,7 +17660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -17611,7 +17680,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -17631,7 +17700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -17651,89 +17720,89 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>69</v>
@@ -17748,52 +17817,52 @@
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>69</v>
@@ -17811,9 +17880,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>69</v>
@@ -17828,367 +17897,307 @@
         <v>50</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>46</v>
+      <c r="D28" s="10">
+        <v>1</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="6">
-        <v>1</v>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>57</v>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -18197,6 +18206,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -18456,16 +18474,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BDFEA48-FAC4-456B-938A-80A9A9627A87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18483,12 +18500,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3B8F187-0BAA-4690-94B5-13DD63965D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/IMKL3_ExtraRules_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CDA0E9-0964-419C-84C1-FE63A546F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD7E1E-67CD-4E62-8FFE-51DD5F2F5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="46272" windowHeight="30456" firstSheet="1" activeTab="1" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="4" activeTab="11" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="CoverageDetail" sheetId="25" r:id="rId5"/>
     <sheet name="StandardCoverageDetail" sheetId="26" r:id="rId6"/>
     <sheet name="ElectricityCable" sheetId="6" r:id="rId7"/>
-    <sheet name="Pipe" sheetId="12" r:id="rId8"/>
-    <sheet name="TelecommunicationsCable" sheetId="7" r:id="rId9"/>
+    <sheet name="TelecommunicationsCable" sheetId="7" r:id="rId8"/>
+    <sheet name="Pipe" sheetId="12" r:id="rId9"/>
     <sheet name="OilGasChemicalsPipe" sheetId="8" r:id="rId10"/>
     <sheet name="SewerPipe" sheetId="9" r:id="rId11"/>
     <sheet name="WaterPipe" sheetId="10" r:id="rId12"/>
@@ -545,9 +545,6 @@
     <t>sewerWaterType</t>
   </si>
   <si>
-    <t>WaterType</t>
-  </si>
-  <si>
     <t>Cannot be present for SewerPipe.</t>
   </si>
   <si>
@@ -920,6 +917,9 @@
   </si>
   <si>
     <t>Strict obligation in IMKL if recordedBy is included. nilReason not allowed. The phone number should include the country code (e.g. +32 for Belgium).</t>
+  </si>
+  <si>
+    <t>waterType</t>
   </si>
 </sst>
 </file>
@@ -1431,38 +1431,38 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -1472,37 +1472,37 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>69</v>
@@ -1975,7 +1975,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2095,7 +2095,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2115,7 +2115,7 @@
         <v>139</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2155,7 +2155,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2195,7 +2195,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2235,7 +2235,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>69</v>
@@ -2848,7 +2848,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2968,7 +2968,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2988,7 +2988,7 @@
         <v>139</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3028,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3068,7 +3068,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3088,7 +3088,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3108,7 +3108,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3208,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3260,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0553AC-C8D7-405B-BF7B-D5436FA88A29}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>157</v>
+        <v>272</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>69</v>
@@ -3721,7 +3721,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3841,7 +3841,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3861,7 +3861,7 @@
         <v>139</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -3901,7 +3901,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3941,7 +3941,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3961,7 +3961,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3981,7 +3981,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4081,7 +4081,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4519,7 +4519,7 @@
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>5</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>69</v>
@@ -4594,7 +4594,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4714,7 +4714,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4734,7 +4734,7 @@
         <v>139</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -4774,7 +4774,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4814,7 +4814,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4834,7 +4834,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4854,7 +4854,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4954,7 +4954,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -4999,22 +4999,22 @@
     </row>
     <row r="44" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5027,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>6</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
@@ -5467,7 +5467,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5607,7 +5607,7 @@
         <v>139</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -5647,7 +5647,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5687,7 +5687,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5707,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5727,7 +5727,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -5832,7 +5832,7 @@
     </row>
     <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>69</v>
@@ -6000,7 +6000,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
@@ -6300,7 +6300,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6380,7 +6380,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -6420,7 +6420,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6460,7 +6460,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6500,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -6753,7 +6753,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7113,7 +7113,7 @@
         <v>52</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7153,7 +7153,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7193,7 +7193,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7213,7 +7213,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7233,7 +7233,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7614,7 +7614,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -7626,7 +7626,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7634,7 +7634,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -7651,10 +7651,10 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>53</v>
@@ -7666,7 +7666,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7771,7 +7771,7 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>69</v>
@@ -7786,7 +7786,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7866,7 +7866,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7906,7 +7906,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7946,7 +7946,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7966,7 +7966,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -7986,7 +7986,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8273,7 +8273,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -8285,7 +8285,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8293,7 +8293,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -8310,10 +8310,10 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>53</v>
@@ -8325,7 +8325,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8430,7 +8430,7 @@
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>69</v>
@@ -8445,7 +8445,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8525,7 +8525,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8565,7 +8565,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8605,7 +8605,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8625,7 +8625,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8645,7 +8645,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -8932,7 +8932,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -8944,7 +8944,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -8952,7 +8952,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -8969,10 +8969,10 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>53</v>
@@ -8984,15 +8984,15 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>53</v>
@@ -9004,7 +9004,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9109,7 +9109,7 @@
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>69</v>
@@ -9124,7 +9124,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9204,7 +9204,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9244,7 +9244,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9284,7 +9284,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9304,7 +9304,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9324,7 +9324,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -9442,7 +9442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F037272-C335-49D9-940E-9503A9473373}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -9523,7 +9523,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9583,7 +9583,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -9783,7 +9783,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -9863,7 +9863,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9883,7 +9883,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -9903,7 +9903,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -10084,7 +10084,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>53</v>
@@ -10096,7 +10096,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10104,7 +10104,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>53</v>
@@ -10121,10 +10121,10 @@
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>53</v>
@@ -10136,15 +10136,15 @@
         <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>53</v>
@@ -10156,7 +10156,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10261,7 +10261,7 @@
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>69</v>
@@ -10276,7 +10276,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10356,7 +10356,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10396,7 +10396,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10436,7 +10436,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10456,7 +10456,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10476,7 +10476,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10675,7 +10675,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -10740,7 +10740,7 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -10760,7 +10760,7 @@
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>69</v>
@@ -10775,12 +10775,12 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>69</v>
@@ -10795,7 +10795,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10990,7 +10990,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11055,7 +11055,7 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -11075,7 +11075,7 @@
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>69</v>
@@ -11090,12 +11090,12 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>69</v>
@@ -11110,7 +11110,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11135,7 +11135,7 @@
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>69</v>
@@ -11150,12 +11150,12 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>69</v>
@@ -11170,7 +11170,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11210,7 +11210,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11250,7 +11250,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11270,7 +11270,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11290,7 +11290,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11330,7 +11330,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -11475,7 +11475,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11500,7 +11500,7 @@
     </row>
     <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>69</v>
@@ -11515,7 +11515,7 @@
         <v>50</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11540,7 +11540,7 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>69</v>
@@ -11575,12 +11575,12 @@
         <v>50</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>69</v>
@@ -11595,7 +11595,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -11620,7 +11620,7 @@
     </row>
     <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>69</v>
@@ -11635,7 +11635,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -11805,7 +11805,7 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -11840,7 +11840,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -11880,7 +11880,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -11940,7 +11940,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12000,7 +12000,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12113,7 +12113,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12173,12 +12173,12 @@
         <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -12193,7 +12193,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12233,7 +12233,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12293,7 +12293,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -12353,7 +12353,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -12426,7 +12426,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12491,10 +12491,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>49</v>
@@ -12506,15 +12506,15 @@
         <v>50</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>49</v>
@@ -12531,10 +12531,10 @@
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>49</v>
@@ -12546,15 +12546,15 @@
         <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>49</v>
@@ -12566,7 +12566,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -12606,7 +12606,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -12626,7 +12626,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12646,7 +12646,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -12666,7 +12666,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -12686,7 +12686,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -12750,7 +12750,7 @@
         <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -12764,13 +12764,13 @@
     </row>
     <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>45</v>
@@ -12790,7 +12790,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>46</v>
@@ -12799,7 +12799,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -12810,7 +12810,7 @@
         <v>69</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -12819,18 +12819,18 @@
         <v>50</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>55</v>
@@ -12844,13 +12844,13 @@
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>55</v>
@@ -12859,18 +12859,18 @@
         <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>45</v>
@@ -12884,13 +12884,13 @@
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>45</v>
@@ -12907,10 +12907,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>46</v>
@@ -12930,7 +12930,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -12939,7 +12939,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -12950,7 +12950,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>46</v>
@@ -12959,7 +12959,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -12970,7 +12970,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -12990,7 +12990,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>46</v>
@@ -13079,7 +13079,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13119,7 +13119,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13139,7 +13139,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13159,7 +13159,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13199,12 +13199,12 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>69</v>
@@ -13219,7 +13219,7 @@
         <v>52</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13357,7 +13357,7 @@
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>69</v>
@@ -13377,10 +13377,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>60</v>
@@ -13400,7 +13400,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>60</v>
@@ -13412,15 +13412,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>60</v>
@@ -13432,7 +13432,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13440,7 +13440,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>60</v>
@@ -13452,7 +13452,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13460,7 +13460,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>60</v>
@@ -13480,7 +13480,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>60</v>
@@ -13492,7 +13492,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13500,7 +13500,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>60</v>
@@ -13512,7 +13512,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13520,7 +13520,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>60</v>
@@ -13532,7 +13532,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13540,7 +13540,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>60</v>
@@ -13552,7 +13552,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13560,7 +13560,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>60</v>
@@ -13572,15 +13572,15 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>60</v>
@@ -13592,7 +13592,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13600,7 +13600,7 @@
         <v>134</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>60</v>
@@ -13612,7 +13612,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13620,7 +13620,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>60</v>
@@ -13632,7 +13632,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13640,7 +13640,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>60</v>
@@ -13660,7 +13660,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>60</v>
@@ -13672,7 +13672,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13680,7 +13680,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>60</v>
@@ -13692,7 +13692,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13700,7 +13700,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>60</v>
@@ -13712,7 +13712,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -13720,7 +13720,7 @@
         <v>107</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>60</v>
@@ -13740,7 +13740,7 @@
         <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>60</v>
@@ -13752,7 +13752,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13772,7 +13772,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -13792,12 +13792,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>69</v>
@@ -13812,12 +13812,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
@@ -13840,7 +13840,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>60</v>
@@ -13852,7 +13852,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13860,7 +13860,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>60</v>
@@ -13880,7 +13880,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>60</v>
@@ -13892,7 +13892,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13900,7 +13900,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>60</v>
@@ -13912,7 +13912,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13920,7 +13920,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>60</v>
@@ -13932,7 +13932,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -13940,7 +13940,7 @@
         <v>107</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>60</v>
@@ -13952,7 +13952,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -13960,7 +13960,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>60</v>
@@ -13997,7 +13997,7 @@
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>69</v>
@@ -14012,7 +14012,7 @@
         <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -14130,7 +14130,7 @@
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>69</v>
@@ -14150,10 +14150,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>60</v>
@@ -14173,7 +14173,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>60</v>
@@ -14185,15 +14185,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>60</v>
@@ -14205,7 +14205,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14213,7 +14213,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>60</v>
@@ -14225,7 +14225,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14233,7 +14233,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>60</v>
@@ -14253,7 +14253,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>60</v>
@@ -14265,7 +14265,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14273,7 +14273,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>60</v>
@@ -14285,7 +14285,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14293,7 +14293,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>60</v>
@@ -14305,7 +14305,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14313,7 +14313,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>60</v>
@@ -14325,7 +14325,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14333,7 +14333,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>60</v>
@@ -14345,15 +14345,15 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>60</v>
@@ -14365,7 +14365,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14373,7 +14373,7 @@
         <v>134</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>60</v>
@@ -14385,7 +14385,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14393,7 +14393,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>60</v>
@@ -14405,7 +14405,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14413,7 +14413,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>60</v>
@@ -14433,7 +14433,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>60</v>
@@ -14445,7 +14445,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14453,7 +14453,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>60</v>
@@ -14465,7 +14465,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14473,7 +14473,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>60</v>
@@ -14485,7 +14485,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -14493,7 +14493,7 @@
         <v>107</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>60</v>
@@ -14513,7 +14513,7 @@
         <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>60</v>
@@ -14525,7 +14525,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -14545,7 +14545,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -14565,12 +14565,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>69</v>
@@ -14585,12 +14585,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
@@ -14613,7 +14613,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>60</v>
@@ -14625,7 +14625,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14633,7 +14633,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>60</v>
@@ -14653,7 +14653,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>60</v>
@@ -14665,7 +14665,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14673,7 +14673,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>60</v>
@@ -14685,7 +14685,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14693,7 +14693,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>60</v>
@@ -14705,7 +14705,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14713,7 +14713,7 @@
         <v>107</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>60</v>
@@ -14725,7 +14725,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14733,7 +14733,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>60</v>
@@ -14750,7 +14750,7 @@
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>69</v>
@@ -14765,7 +14765,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14805,7 +14805,7 @@
         <v>50</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14833,7 +14833,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>60</v>
@@ -14845,7 +14845,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14853,7 +14853,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>60</v>
@@ -14865,7 +14865,7 @@
         <v>50</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14873,7 +14873,7 @@
         <v>68</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>60</v>
@@ -14885,7 +14885,7 @@
         <v>50</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -14925,7 +14925,7 @@
         <v>50</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -14950,7 +14950,7 @@
     </row>
     <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>69</v>
@@ -14965,7 +14965,7 @@
         <v>52</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>69</v>
@@ -15103,10 +15103,10 @@
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>60</v>
@@ -15126,7 +15126,7 @@
         <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>60</v>
@@ -15138,15 +15138,15 @@
         <v>50</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>60</v>
@@ -15158,7 +15158,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15166,7 +15166,7 @@
         <v>105</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>60</v>
@@ -15178,7 +15178,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15186,7 +15186,7 @@
         <v>106</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>60</v>
@@ -15206,7 +15206,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>60</v>
@@ -15218,7 +15218,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15226,7 +15226,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>60</v>
@@ -15238,7 +15238,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15246,7 +15246,7 @@
         <v>68</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>60</v>
@@ -15258,7 +15258,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15266,7 +15266,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>60</v>
@@ -15286,7 +15286,7 @@
         <v>108</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>60</v>
@@ -15298,15 +15298,15 @@
         <v>50</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>60</v>
@@ -15318,7 +15318,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15326,7 +15326,7 @@
         <v>134</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>60</v>
@@ -15338,7 +15338,7 @@
         <v>50</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15346,7 +15346,7 @@
         <v>105</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>60</v>
@@ -15358,7 +15358,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15366,7 +15366,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>60</v>
@@ -15386,7 +15386,7 @@
         <v>66</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>60</v>
@@ -15398,7 +15398,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15406,7 +15406,7 @@
         <v>67</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>60</v>
@@ -15418,7 +15418,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15426,7 +15426,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>60</v>
@@ -15438,7 +15438,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -15446,7 +15446,7 @@
         <v>107</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>60</v>
@@ -15466,7 +15466,7 @@
         <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>60</v>
@@ -15478,7 +15478,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15498,7 +15498,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -15518,12 +15518,12 @@
         <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>69</v>
@@ -15538,12 +15538,12 @@
         <v>50</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>69</v>
@@ -15566,7 +15566,7 @@
         <v>105</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>60</v>
@@ -15578,7 +15578,7 @@
         <v>50</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15586,7 +15586,7 @@
         <v>106</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>60</v>
@@ -15606,7 +15606,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>60</v>
@@ -15618,7 +15618,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15626,7 +15626,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>60</v>
@@ -15638,7 +15638,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15646,7 +15646,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>60</v>
@@ -15658,7 +15658,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -15666,7 +15666,7 @@
         <v>107</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>60</v>
@@ -15678,7 +15678,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15686,7 +15686,7 @@
         <v>108</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>60</v>
@@ -15718,7 +15718,7 @@
         <v>50</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -15751,7 +15751,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>69</v>
@@ -16151,7 +16151,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16271,7 +16271,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -16291,7 +16291,7 @@
         <v>139</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -16331,7 +16331,7 @@
         <v>50</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16371,7 +16371,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16391,7 +16391,7 @@
         <v>50</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16411,7 +16411,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -16560,6 +16560,799 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -16989,7 +17782,7 @@
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>69</v>
@@ -17004,7 +17797,7 @@
         <v>50</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17124,7 +17917,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -17144,7 +17937,7 @@
         <v>139</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -17184,7 +17977,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17224,7 +18017,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17244,7 +18037,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17264,7 +18057,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -17405,799 +18198,6 @@
       </c>
       <c r="F42" s="5" t="s">
         <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
-  <dimension ref="A1:F39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/implementation/IMKL3_ExtraRules_v1.xlsx
+++ b/implementation/IMKL3_ExtraRules_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD7E1E-67CD-4E62-8FFE-51DD5F2F5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79975FE7-F6B9-4EB2-A817-E5AA936CF06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" firstSheet="4" activeTab="11" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
+    <workbookView xWindow="-28920" yWindow="-1995" windowWidth="29040" windowHeight="17790" firstSheet="6" activeTab="12" xr2:uid="{9D17743D-328E-4A6F-BE90-89AFCBF75199}"/>
   </bookViews>
   <sheets>
     <sheet name="IMKL3 Extra Rules" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4397" uniqueCount="273">
   <si>
     <t>ElectricityCable</t>
   </si>
@@ -1424,83 +1424,83 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="157" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>45499</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>247</v>
       </c>
@@ -1515,20 +1515,20 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>150</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>169</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -2387,21 +2387,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8AAE2A-CE0F-40D3-BDBB-F982DDEB87C4}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>156</v>
       </c>
@@ -2781,8 +2781,8 @@
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
+      <c r="D20" s="6">
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>50</v>
@@ -2791,7 +2791,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>169</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -3260,21 +3260,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0553AC-C8D7-405B-BF7B-D5436FA88A29}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>272</v>
       </c>
@@ -3654,8 +3654,8 @@
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
+      <c r="D20" s="6">
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>50</v>
@@ -3664,7 +3664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>169</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -4133,21 +4133,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804D63D-6629-4BE3-A1A2-E77803CCA220}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>148</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>149</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>160</v>
       </c>
@@ -4527,8 +4527,8 @@
       <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
+      <c r="D20" s="6">
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>50</v>
@@ -4537,7 +4537,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>38</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>169</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>81</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>82</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>103</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>130</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>131</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>132</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>133</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>134</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>105</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>66</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>107</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>43</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>151</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>152</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>80</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>161</v>
       </c>
@@ -5030,17 +5030,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +5050,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>164</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>165</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>130</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>131</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>132</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>133</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>134</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>106</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>151</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>163</v>
       </c>
@@ -5863,17 +5863,17 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>83</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>105</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>66</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>67</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>107</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>85</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -6616,17 +6616,17 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -6636,7 +6636,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>88</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>89</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>75</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>76</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>77</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>91</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>79</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>80</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>81</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>82</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>103</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>83</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>105</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>67</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>68</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>107</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>108</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>85</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>117</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>118</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>119</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>121</v>
       </c>
@@ -7449,17 +7449,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -7469,7 +7469,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>169</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -7809,7 +7809,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>105</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -8089,10 +8089,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -8108,17 +8108,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>79</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>169</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>81</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>82</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>103</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>83</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>84</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>105</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>106</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>66</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>68</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>107</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>43</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>44</v>
       </c>
@@ -8748,10 +8748,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
   </sheetData>
@@ -8767,17 +8767,17 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -8787,7 +8787,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>174</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>169</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>105</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>43</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
@@ -9427,10 +9427,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -9443,20 +9443,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -9466,7 +9466,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>47</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>31</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>58</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>37</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>38</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
@@ -9919,17 +9919,17 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -9939,7 +9939,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>77</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>33</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>71</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>176</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -10179,7 +10179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>79</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>169</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>81</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>82</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>103</v>
       </c>
@@ -10339,7 +10339,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>84</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>105</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>106</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>67</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>107</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>43</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>44</v>
       </c>
@@ -10579,10 +10579,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10598,17 +10598,17 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10618,7 +10618,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>178</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -10818,43 +10818,43 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -10862,22 +10862,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -10885,19 +10885,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -10913,17 +10913,17 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -10933,7 +10933,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>178</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>179</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>183</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>184</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>134</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>105</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>106</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>66</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>68</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>107</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -11333,13 +11333,13 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -11347,22 +11347,22 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -11370,19 +11370,19 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D32" s="10"/>
     </row>
-    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D35" s="8"/>
     </row>
   </sheetData>
@@ -11398,17 +11398,17 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -11418,7 +11418,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>185</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>186</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>187</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>184</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>72</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>188</v>
       </c>
@@ -11638,16 +11638,16 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D16" s="8"/>
     </row>
   </sheetData>
@@ -11663,17 +11663,17 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -11683,7 +11683,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>66</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>193</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>84</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>105</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>106</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>66</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>68</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>107</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>108</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -12036,17 +12036,17 @@
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -12056,7 +12056,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>184</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>134</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -12369,17 +12369,17 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -12389,7 +12389,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>71</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>227</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>228</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>230</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>231</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>77</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>91</v>
       </c>
@@ -12699,20 +12699,20 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -12722,7 +12722,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -12742,7 +12742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>198</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>66</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>73</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>195</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>199</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>201</v>
       </c>
@@ -12882,7 +12882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>202</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>84</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>196</v>
       </c>
@@ -13222,7 +13222,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -13251,21 +13251,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D942B28-BE2C-4879-B771-95BEB360A522}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -13275,7 +13275,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>207</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>210</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>209</v>
       </c>
@@ -13435,7 +13435,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>107</v>
       </c>
@@ -13555,7 +13555,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>184</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>134</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -13635,7 +13635,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -13675,7 +13675,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -13715,7 +13715,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>208</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>209</v>
       </c>
@@ -13835,7 +13835,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>72</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>196</v>
       </c>
@@ -14024,21 +14024,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEEBB16-5094-4A68-A615-43B0896E521F}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -14088,7 +14088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>207</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>210</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>77</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>209</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>107</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -14348,7 +14348,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>184</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>134</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -14408,7 +14408,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>77</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>208</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>209</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -14688,7 +14688,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>184</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>105</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>66</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>67</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>68</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>107</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>108</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>72</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>196</v>
       </c>
@@ -14981,17 +14981,17 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -15001,7 +15001,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -15061,7 +15061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>207</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>210</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>209</v>
       </c>
@@ -15161,7 +15161,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>106</v>
       </c>
@@ -15201,7 +15201,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>66</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>107</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>108</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>184</v>
       </c>
@@ -15321,7 +15321,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>134</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>105</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>106</v>
       </c>
@@ -15381,7 +15381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>67</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>68</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>107</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>108</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>85</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>208</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>209</v>
       </c>
@@ -15561,7 +15561,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>105</v>
       </c>
@@ -15581,7 +15581,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>106</v>
       </c>
@@ -15601,7 +15601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>66</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>67</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>68</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>107</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>108</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>72</v>
       </c>
@@ -15750,21 +15750,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10101923-3348-4496-9274-4B73928D2D00}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15774,7 +15774,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -15854,7 +15854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -15994,7 +15994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>128</v>
       </c>
@@ -16074,7 +16074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>129</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>169</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>81</v>
       </c>
@@ -16174,7 +16174,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>82</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>103</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>130</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -16274,7 +16274,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>133</v>
       </c>
@@ -16294,7 +16294,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>105</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>106</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>66</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>67</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>68</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>108</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>43</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>44</v>
       </c>
@@ -16494,7 +16494,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>135</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>136</v>
       </c>
@@ -16563,21 +16563,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0213BD-F2E7-42B7-80C7-ACC383C2E599}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -16587,7 +16587,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -16667,7 +16667,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -16787,7 +16787,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>145</v>
       </c>
@@ -16887,7 +16887,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>38</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
@@ -16927,7 +16927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>169</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>81</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>82</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>103</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>130</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>131</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>132</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>133</v>
       </c>
@@ -17087,7 +17087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
@@ -17107,7 +17107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>105</v>
       </c>
@@ -17127,7 +17127,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>106</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>66</v>
       </c>
@@ -17167,7 +17167,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>67</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>68</v>
       </c>
@@ -17207,7 +17207,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>107</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>108</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>44</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>80</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>135</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>136</v>
       </c>
@@ -17356,21 +17356,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10379A83-45C8-474C-B01F-0F591E7D96E8}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17380,7 +17380,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>125</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>75</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>76</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>33</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>91</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>126</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>127</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>146</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>147</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>148</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>149</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>38</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>169</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>81</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>82</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>103</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>130</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>131</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>132</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>133</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>134</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>105</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>106</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>67</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>68</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>107</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>108</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>44</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>151</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>152</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>80</v>
       </c>
